--- a/doc/Datasul2ProtheusTabelasDePara.xlsx
+++ b/doc/Datasul2ProtheusTabelasDePara.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="8"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="R3_TIPO R7_TIPO " sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="171">
   <si>
     <t>001</t>
   </si>
@@ -438,12 +438,6 @@
     <t>M</t>
   </si>
   <si>
-    <t>MESALISTA</t>
-  </si>
-  <si>
-    <t>PRO LABORE</t>
-  </si>
-  <si>
     <t>S</t>
   </si>
   <si>
@@ -453,9 +447,6 @@
     <t>T</t>
   </si>
   <si>
-    <t>TAREFA</t>
-  </si>
-  <si>
     <t>casado</t>
   </si>
   <si>
@@ -511,13 +502,64 @@
   </si>
   <si>
     <t>V</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>AUTONOMO</t>
+  </si>
+  <si>
+    <t>COMISSIONADO</t>
+  </si>
+  <si>
+    <t>DIARISTA</t>
+  </si>
+  <si>
+    <t>ESTAGIARIO MENSALISTA</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>ESTAGIARIO HORISTA</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>HORISTA</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>PROFESSOR MENSALISTA</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>PROFESSOR AULISTA</t>
+  </si>
+  <si>
+    <t>MENSALISTA</t>
+  </si>
+  <si>
+    <t>PRO-LABORE</t>
+  </si>
+  <si>
+    <t>TAREFEIRO</t>
+  </si>
+  <si>
+    <t>PAR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <name val="Courier New"/>
@@ -655,6 +697,11 @@
       <sz val="8"/>
       <name val="Courier New"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -998,7 +1045,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1009,6 +1056,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1366,7 +1416,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -1380,13 +1430,13 @@
         <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C1" t="s">
         <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E1" t="s">
         <v>22</v>
@@ -1397,13 +1447,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>1</v>
@@ -1414,13 +1464,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>3</v>
@@ -1431,13 +1481,13 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>5</v>
@@ -1448,13 +1498,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>7</v>
@@ -1465,13 +1515,13 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>9</v>
@@ -1482,13 +1532,13 @@
         <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>11</v>
@@ -1499,13 +1549,13 @@
         <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>13</v>
@@ -1516,13 +1566,13 @@
         <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>15</v>
@@ -1533,13 +1583,13 @@
         <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>17</v>
@@ -1550,13 +1600,13 @@
         <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>19</v>
@@ -1567,7 +1617,7 @@
         <v>55</v>
       </c>
       <c r="B12" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -1575,7 +1625,7 @@
         <v>60</v>
       </c>
       <c r="B13" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -1585,10 +1635,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1602,156 +1652,156 @@
         <v>105</v>
       </c>
       <c r="B1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C1" t="s">
         <v>106</v>
       </c>
       <c r="D1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>6</v>
+    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>7</v>
+    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>8</v>
+    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>38</v>
@@ -1759,367 +1809,370 @@
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>9</v>
-      </c>
       <c r="B10" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>40</v>
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>10</v>
+    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>42</v>
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>11</v>
+    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D12" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>12</v>
+    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="B13" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D13" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>13</v>
+    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D14" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>14</v>
+    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D15" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>50</v>
       </c>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>15</v>
+    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="B16" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>52</v>
       </c>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>16</v>
+    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>170</v>
       </c>
       <c r="B17" t="s">
-        <v>144</v>
-      </c>
-      <c r="C17" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D17" t="s">
-        <v>145</v>
-      </c>
-      <c r="E17" s="1" t="s">
+      <c r="B18" t="s">
+        <v>141</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" t="s">
+        <v>142</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>144</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D18" t="s">
-        <v>145</v>
-      </c>
-      <c r="E18" s="1" t="s">
+      <c r="B19" t="s">
+        <v>141</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" t="s">
+        <v>142</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>144</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D19" t="s">
-        <v>145</v>
-      </c>
-      <c r="E19" s="1" t="s">
+      <c r="B20" t="s">
+        <v>141</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" t="s">
+        <v>142</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>144</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D20" t="s">
-        <v>145</v>
-      </c>
-      <c r="E20" s="1" t="s">
+      <c r="B21" t="s">
+        <v>141</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" t="s">
+        <v>142</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>144</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D21" t="s">
-        <v>145</v>
-      </c>
-      <c r="E21" s="1" t="s">
+      <c r="B22" t="s">
+        <v>141</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" t="s">
+        <v>142</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>144</v>
-      </c>
-      <c r="C22" s="1" t="s">
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D22" t="s">
-        <v>145</v>
-      </c>
-      <c r="E22" s="1" t="s">
+      <c r="B23" t="s">
+        <v>141</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" t="s">
+        <v>142</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>144</v>
-      </c>
-      <c r="C23" s="1" t="s">
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D23" t="s">
-        <v>145</v>
-      </c>
-      <c r="E23" s="1" t="s">
+      <c r="B24" t="s">
+        <v>141</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" t="s">
+        <v>142</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>144</v>
-      </c>
-      <c r="C24" s="1" t="s">
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D24" t="s">
-        <v>145</v>
-      </c>
-      <c r="E24" s="1" t="s">
+      <c r="B25" t="s">
+        <v>141</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" t="s">
+        <v>142</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>144</v>
-      </c>
-      <c r="C25" s="1" t="s">
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D25" t="s">
-        <v>145</v>
-      </c>
-      <c r="E25" s="1" t="s">
+      <c r="B26" t="s">
+        <v>141</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" t="s">
+        <v>142</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>144</v>
-      </c>
-      <c r="C26" s="1" t="s">
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D26" t="s">
-        <v>145</v>
-      </c>
-      <c r="E26" s="1" t="s">
+      <c r="B27" t="s">
+        <v>141</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" t="s">
+        <v>142</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>144</v>
-      </c>
-      <c r="C27" s="1" t="s">
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D27" t="s">
-        <v>145</v>
-      </c>
-      <c r="E27" s="1" t="s">
+      <c r="B28" t="s">
+        <v>141</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" t="s">
+        <v>142</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>144</v>
-      </c>
-      <c r="C28" s="1" t="s">
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D28" t="s">
-        <v>145</v>
-      </c>
-      <c r="E28" s="1" t="s">
+      <c r="B29" t="s">
+        <v>141</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" t="s">
+        <v>142</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>144</v>
-      </c>
-      <c r="C29" s="1" t="s">
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D29" t="s">
-        <v>145</v>
-      </c>
-      <c r="E29" s="1" t="s">
+      <c r="C30" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" t="s">
+        <v>142</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F29" s="1"/>
+      <c r="F30" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2127,7 +2180,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -2141,13 +2194,13 @@
         <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C1" t="s">
         <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E1" t="s">
         <v>116</v>
@@ -2158,13 +2211,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C2" t="s">
         <v>118</v>
       </c>
       <c r="D2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E2" t="s">
         <v>119</v>
@@ -2175,13 +2228,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C3" t="s">
         <v>117</v>
       </c>
       <c r="D3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E3" t="s">
         <v>120</v>
@@ -2192,13 +2245,13 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C4" t="s">
         <v>121</v>
       </c>
       <c r="D4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E4" t="s">
         <v>122</v>
@@ -2209,13 +2262,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C5" t="s">
         <v>123</v>
       </c>
       <c r="D5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E5" t="s">
         <v>124</v>
@@ -2226,13 +2279,13 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C6" t="s">
         <v>125</v>
       </c>
       <c r="D6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E6" t="s">
         <v>126</v>
@@ -2243,10 +2296,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -2254,10 +2307,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2269,7 +2322,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -2280,13 +2333,13 @@
         <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C1" t="s">
         <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E1" t="s">
         <v>129</v>
@@ -2297,13 +2350,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>80</v>
@@ -2314,13 +2367,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>81</v>
       </c>
       <c r="D3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>82</v>
@@ -2331,13 +2384,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>84</v>
@@ -2348,13 +2401,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>86</v>
@@ -2365,13 +2418,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>87</v>
       </c>
       <c r="D6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>88</v>
@@ -2382,13 +2435,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>90</v>
@@ -2399,13 +2452,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>92</v>
@@ -2416,13 +2469,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>93</v>
       </c>
       <c r="D9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>94</v>
@@ -2433,13 +2486,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>95</v>
       </c>
       <c r="D10" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>96</v>
@@ -2450,13 +2503,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>97</v>
       </c>
       <c r="D11" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>98</v>
@@ -2467,13 +2520,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>99</v>
       </c>
       <c r="D12" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>100</v>
@@ -2484,13 +2537,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>101</v>
       </c>
       <c r="D13" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>102</v>
@@ -2501,13 +2554,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D14" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>104</v>
@@ -2519,7 +2572,7 @@
       </c>
       <c r="C15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2545,13 +2598,13 @@
         <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C1" t="s">
         <v>106</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E1" t="s">
         <v>127</v>
@@ -2562,16 +2615,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="12" x14ac:dyDescent="0.25">
@@ -2579,16 +2632,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E3" t="s">
         <v>145</v>
-      </c>
-      <c r="E3" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="12" x14ac:dyDescent="0.25">
@@ -2596,16 +2649,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="12" x14ac:dyDescent="0.25">
@@ -2613,16 +2666,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -2634,8 +2687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E5"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -2645,13 +2698,13 @@
         <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C1" t="s">
         <v>106</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E1" t="s">
         <v>128</v>
@@ -2662,16 +2715,16 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="12" x14ac:dyDescent="0.25">
@@ -2679,16 +2732,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="12" x14ac:dyDescent="0.25">
@@ -2696,16 +2749,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="12" x14ac:dyDescent="0.25">
@@ -2713,13 +2766,13 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2745,13 +2798,13 @@
         <v>105</v>
       </c>
       <c r="B1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C1" t="s">
         <v>106</v>
       </c>
       <c r="D1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E1" t="s">
         <v>107</v>
@@ -2762,13 +2815,13 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E2" t="s">
         <v>108</v>
@@ -2779,13 +2832,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E3" t="s">
         <v>109</v>
@@ -2796,13 +2849,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C4">
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E4" t="s">
         <v>110</v>
@@ -2813,13 +2866,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C5">
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E5" t="s">
         <v>111</v>
@@ -2830,13 +2883,13 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C6">
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E6" t="s">
         <v>112</v>
@@ -2847,13 +2900,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C7">
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E7" t="s">
         <v>113</v>
@@ -2867,7 +2920,7 @@
         <v>114</v>
       </c>
       <c r="D8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E8" t="s">
         <v>115</v>
@@ -2880,91 +2933,197 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C1" t="s">
         <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C2" t="s">
         <v>131</v>
       </c>
       <c r="D2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E8" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E9" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E10" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E11" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F11" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E12" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E13" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D4" t="s">
-        <v>145</v>
-      </c>
-      <c r="E4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C5" t="s">
-        <v>136</v>
-      </c>
-      <c r="D5" t="s">
-        <v>145</v>
-      </c>
-      <c r="E5" t="s">
-        <v>137</v>
+      <c r="F13" s="1" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -2976,7 +3135,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -2987,13 +3146,13 @@
         <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C1" t="s">
         <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E1" t="s">
         <v>129</v>
@@ -3004,16 +3163,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C2" t="s">
         <v>118</v>
       </c>
       <c r="D2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -3021,16 +3180,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -3038,16 +3197,16 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C4" t="s">
         <v>131</v>
       </c>
       <c r="D4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -3055,16 +3214,16 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -3072,16 +3231,16 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -3089,16 +3248,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -3106,13 +3265,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -3120,13 +3279,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E9" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
